--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="12315" windowHeight="5370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>UserName</t>
   </si>
@@ -28,6 +29,9 @@
   </si>
   <si>
     <t>manager</t>
+  </si>
+  <si>
+    <t>damager</t>
   </si>
 </sst>
 </file>
@@ -366,10 +370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -388,6 +392,14 @@
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
